--- a/xlsx/加文·纽森_intext.xlsx
+++ b/xlsx/加文·纽森_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>加文·纽森</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>政策_政策_加州_加文·纽森</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>三藩市灣區</t>
+    <t>三藩市湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%A9%9A</t>
   </si>
   <si>
-    <t>離婚</t>
+    <t>离婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AD%9F%E8%B4%A4</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -113,13 +113,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9</t>
@@ -960,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -986,10 +983,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
